--- a/biology/Zoologie/Diversidoris_crocea/Diversidoris_crocea.xlsx
+++ b/biology/Zoologie/Diversidoris_crocea/Diversidoris_crocea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Diversidoris crocea est une espèce de nudibranches de la famille des Chromodorididae et du genre Diversidoris.
 </t>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre dans l'Ouest du Pacifique. Elle peut notamment être observée à Taïwan[1], aux Philippines[2], en Nouvelle-Calédonie[3] et en Australie[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre dans l'Ouest du Pacifique. Elle peut notamment être observée à Taïwan, aux Philippines, en Nouvelle-Calédonie et en Australie.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La couleur de l'animal est jaune[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La couleur de l'animal est jaune.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Rudman, W. B. 1986. The Chromodorididae (Ophistobranchia: Mollusca) of the Indo-West Pacific: Noumea flava color group. Zoological Journal of the Linnean Society, 88: 307-404 [382].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Rudman, W. B. 1986. The Chromodorididae (Ophistobranchia: Mollusca) of the Indo-West Pacific: Noumea flava color group. Zoological Journal of the Linnean Society, 88: 307-404 .</t>
         </is>
       </c>
     </row>
@@ -603,9 +621,11 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été nommée par le zoologiste australien William B. Rudman en 1986 sous le protonyme Noumea crocea[4] et transférée dans le genre Diversidoris[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été nommée par le zoologiste australien William B. Rudman en 1986 sous le protonyme Noumea crocea et transférée dans le genre Diversidoris.
 </t>
         </is>
       </c>
